--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_26.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="641">
   <si>
     <t>STR</t>
   </si>
@@ -138,10 +138,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>AngeIdB</t>
-  </si>
-  <si>
-    <t>04/06/2018</t>
+    <t>09/07/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r567560692-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
@@ -171,18 +168,15 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>General M, General Manager at Candlewood Suites Avondale-New Orleans, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>General M, General Manager at Candlewood Suites Avondale-New Orleans, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
   </si>
   <si>
     <t>Usually when we stay at Tough Mudder hotels, the laundry facilities charge us to wash and dry our clothes.   It was a pleasant surprise to not have to pay for the facilities, just our soap.   All staff members were prompt and courteous and made us feel like we were the most important people.   It was refreshing to feel “like part of the family”! The beds were absolutely comfy, rooms clean, with full size fridge and pots to cook on the glass top stove.  They made sure we had utensils and towels to dry our clean dishes with also.  The hotel was 2 miles from the event and the staff were absolutely fantastic!    There were no bad smells -like when you stay someplace and they have used too many chemicals, it was a fresh clean smell.  Even in the humidity.  Had a minor problem with door key, as it didn’t always after multiple tries, but patience finally paid off each time and it would unlock the door.  Will definitely stay here again as we travel! More</t>
   </si>
   <si>
-    <t>Russell C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r554963421-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>Hotel is a nice alternative to expensive hotels in New Orleans.  Rooms were clean, staff very friendly, and area is quiet area.  Hotel has free laundry facilities.  We stayed a few days after a cruise to tour New Orleans and Candlewood made a great home base.  The laundry was very handy.More</t>
   </si>
   <si>
-    <t>Cguidryrn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r540540386-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -225,7 +216,7 @@
     <t xml:space="preserve">Best experience I've ever had </t>
   </si>
   <si>
-    <t>So I arrived around 430 or so to check in for the night for an early morning flight the next day. I checked in with the desk clerk and went back to my car to gather my things and inadvertently dropped my keys into my trunk before locking it 😫😫. I went back inside and told the clerk, Raychelle, what had happened and with a fantastic disposition she jumped into action, offering to call pop-a-lock for me, even telling me that I could go on to my room and relax and that she would call me in the room when they arrived. She also went well out of her way to find a charger for my phone while I waited for my car to be unlocked. I had to go down to the desk for several different issues (none of which were about the hotel, just trying to coordinate getting my keys out of the trunk, etc. Raychelle NEVER was anything less than perfection through the night. She has the hospitality spirit beaming from her smile. Whomever is in charge of this young lady needs to be commended and doing whatever you can to retain her forever. There is no way she could have been any more courteous and professional during my stay.  I also encountered several other staff members during my stay and the amount of work ethic they all exuded was obvious. Always with a warm, welcoming, helpful...So I arrived around 430 or so to check in for the night for an early morning flight the next day. I checked in with the desk clerk and went back to my car to gather my things and inadvertently dropped my keys into my trunk before locking it . I went back inside and told the clerk, Raychelle, what had happened and with a fantastic disposition she jumped into action, offering to call pop-a-lock for me, even telling me that I could go on to my room and relax and that she would call me in the room when they arrived. She also went well out of her way to find a charger for my phone while I waited for my car to be unlocked. I had to go down to the desk for several different issues (none of which were about the hotel, just trying to coordinate getting my keys out of the trunk, etc. Raychelle NEVER was anything less than perfection through the night. She has the hospitality spirit beaming from her smile. Whomever is in charge of this young lady needs to be commended and doing whatever you can to retain her forever. There is no way she could have been any more courteous and professional during my stay.  I also encountered several other staff members during my stay and the amount of work ethic they all exuded was obvious. Always with a warm, welcoming, helpful smile. Please please please do something special for these ladies. As a manager/director of a facility, I would love to have these ladies on my team. What a great job they've done, and what a great establishment they have made it. Five star stay in my book. ❤️MoreShow less</t>
+    <t>So I arrived around 430 or so to check in for the night for an early morning flight the next day. I checked in with the desk clerk and went back to my car to gather my things and inadvertently dropped my keys into my trunk before locking it . I went back inside and told the clerk, Raychelle, what had happened and with a fantastic disposition she jumped into action, offering to call pop-a-lock for me, even telling me that I could go on to my room and relax and that she would call me in the room when they arrived. She also went well out of her way to find a charger for my phone while I waited for my car to be unlocked. I had to go down to the desk for several different issues (none of which were about the hotel, just trying to coordinate getting my keys out of the trunk, etc. Raychelle NEVER was anything less than perfection through the night. She has the hospitality spirit beaming from her smile. Whomever is in charge of this young lady needs to be commended and doing whatever you can to retain her forever. There is no way she could have been any more courteous and professional during my stay.  I also encountered several other staff members during my stay and the amount of work ethic they all exuded was obvious. Always with a warm, welcoming, helpful...So I arrived around 430 or so to check in for the night for an early morning flight the next day. I checked in with the desk clerk and went back to my car to gather my things and inadvertently dropped my keys into my trunk before locking it . I went back inside and told the clerk, Raychelle, what had happened and with a fantastic disposition she jumped into action, offering to call pop-a-lock for me, even telling me that I could go on to my room and relax and that she would call me in the room when they arrived. She also went well out of her way to find a charger for my phone while I waited for my car to be unlocked. I had to go down to the desk for several different issues (none of which were about the hotel, just trying to coordinate getting my keys out of the trunk, etc. Raychelle NEVER was anything less than perfection through the night. She has the hospitality spirit beaming from her smile. Whomever is in charge of this young lady needs to be commended and doing whatever you can to retain her forever. There is no way she could have been any more courteous and professional during my stay.  I also encountered several other staff members during my stay and the amount of work ethic they all exuded was obvious. Always with a warm, welcoming, helpful smile. Please please please do something special for these ladies. As a manager/director of a facility, I would love to have these ladies on my team. What a great job they've done, and what a great establishment they have made it. Five star stay in my book. ️MoreShow less</t>
   </si>
   <si>
     <t>November 2017</t>
@@ -240,10 +231,7 @@
     <t>Responded November 14, 2017</t>
   </si>
   <si>
-    <t>So I arrived around 430 or so to check in for the night for an early morning flight the next day. I checked in with the desk clerk and went back to my car to gather my things and inadvertently dropped my keys into my trunk before locking it 😫😫. I went back inside and told the clerk, Raychelle, what had happened and with a fantastic disposition she jumped into action, offering to call pop-a-lock for me, even telling me that I could go on to my room and relax and that she would call me in the room when they arrived. She also went well out of her way to find a charger for my phone while I waited for my car to be unlocked. I had to go down to the desk for several different issues (none of which were about the hotel, just trying to coordinate getting my keys out of the trunk, etc. Raychelle NEVER was anything less than perfection through the night. She has the hospitality spirit beaming from her smile. Whomever is in charge of this young lady needs to be commended and doing whatever you can to retain her forever. There is no way she could have been any more courteous and professional during my stay.  I also encountered several other staff members during my stay and the amount of work ethic they all exuded was obvious. Always with a warm, welcoming, helpful...So I arrived around 430 or so to check in for the night for an early morning flight the next day. I checked in with the desk clerk and went back to my car to gather my things and inadvertently dropped my keys into my trunk before locking it . I went back inside and told the clerk, Raychelle, what had happened and with a fantastic disposition she jumped into action, offering to call pop-a-lock for me, even telling me that I could go on to my room and relax and that she would call me in the room when they arrived. She also went well out of her way to find a charger for my phone while I waited for my car to be unlocked. I had to go down to the desk for several different issues (none of which were about the hotel, just trying to coordinate getting my keys out of the trunk, etc. Raychelle NEVER was anything less than perfection through the night. She has the hospitality spirit beaming from her smile. Whomever is in charge of this young lady needs to be commended and doing whatever you can to retain her forever. There is no way she could have been any more courteous and professional during my stay.  I also encountered several other staff members during my stay and the amount of work ethic they all exuded was obvious. Always with a warm, welcoming, helpful smile. Please please please do something special for these ladies. As a manager/director of a facility, I would love to have these ladies on my team. What a great job they've done, and what a great establishment they have made it. Five star stay in my book. ❤️More</t>
-  </si>
-  <si>
-    <t>D'michael Y</t>
+    <t>So I arrived around 430 or so to check in for the night for an early morning flight the next day. I checked in with the desk clerk and went back to my car to gather my things and inadvertently dropped my keys into my trunk before locking it . I went back inside and told the clerk, Raychelle, what had happened and with a fantastic disposition she jumped into action, offering to call pop-a-lock for me, even telling me that I could go on to my room and relax and that she would call me in the room when they arrived. She also went well out of her way to find a charger for my phone while I waited for my car to be unlocked. I had to go down to the desk for several different issues (none of which were about the hotel, just trying to coordinate getting my keys out of the trunk, etc. Raychelle NEVER was anything less than perfection through the night. She has the hospitality spirit beaming from her smile. Whomever is in charge of this young lady needs to be commended and doing whatever you can to retain her forever. There is no way she could have been any more courteous and professional during my stay.  I also encountered several other staff members during my stay and the amount of work ethic they all exuded was obvious. Always with a warm, welcoming, helpful...So I arrived around 430 or so to check in for the night for an early morning flight the next day. I checked in with the desk clerk and went back to my car to gather my things and inadvertently dropped my keys into my trunk before locking it . I went back inside and told the clerk, Raychelle, what had happened and with a fantastic disposition she jumped into action, offering to call pop-a-lock for me, even telling me that I could go on to my room and relax and that she would call me in the room when they arrived. She also went well out of her way to find a charger for my phone while I waited for my car to be unlocked. I had to go down to the desk for several different issues (none of which were about the hotel, just trying to coordinate getting my keys out of the trunk, etc. Raychelle NEVER was anything less than perfection through the night. She has the hospitality spirit beaming from her smile. Whomever is in charge of this young lady needs to be commended and doing whatever you can to retain her forever. There is no way she could have been any more courteous and professional during my stay.  I also encountered several other staff members during my stay and the amount of work ethic they all exuded was obvious. Always with a warm, welcoming, helpful smile. Please please please do something special for these ladies. As a manager/director of a facility, I would love to have these ladies on my team. What a great job they've done, and what a great establishment they have made it. Five star stay in my book. ️More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r537724314-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
@@ -270,9 +258,6 @@
     <t>Rogene LeBeauf provided great service she was very friendly and helpful very good employee other than that I recommend anyone coming to this area to sleep in here it is spacious and comfortable I will be back:)More</t>
   </si>
   <si>
-    <t>Dereck J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r535224404-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -300,9 +285,6 @@
     <t>From the moment i walked in i felt welcomed and at home. I can honestly say all my needs were met during mt stay. The front desk agent Rogené LeBeauf was extremely helpful &amp; attentive. I was impressed by her service.More</t>
   </si>
   <si>
-    <t>Premanand J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r517135869-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -330,9 +312,6 @@
     <t>Hotel is good to Stay, people are friendly and helpful. Especially Rogene LeBeeauf good in understanding the requirement and she provided the good room for me.Only draw back they don't have the complementary breakfast..More</t>
   </si>
   <si>
-    <t>Ocmdlove</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r504337592-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -360,9 +339,6 @@
     <t>Everyone is very nice and very respectful from housekeeping to reception desk personnel. Place is very nice and cozy except that the floor in our hotel room was dirty. Bed and pillows very comfortable. Shower is great! Good pressure. Very neat.  They only do housekeeping weekly, but they were very nice to give us extra garbage bags, shampoo and etc. free newspaper daily. Pantry with free coffee 24/day. Nice stay overall.More</t>
   </si>
   <si>
-    <t>Carlos C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r490360755-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -393,9 +369,6 @@
     <t>Typical Candlewood suite hotel except that the staff is extremely friendly and helpful, particularly Raychelle. Thanks guys!They empty trash and supply towels every day which is not standard. They have 1 Bdr King Suites while most others just have 1 Bdr Queen Suites. Also the gym is great with a resistance machine and a good set of free weights.There is a nice supermarket next door and it takes about 2o minutes to New Orleans. We always parked somewhere far enough away from the center at the green or red streetcar line. The streetcar is 3$ a day ticket and is the best way to go to downtown. More</t>
   </si>
   <si>
-    <t>gscyclist</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r471704087-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -414,9 +387,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>tourchick</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r469937082-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -435,9 +405,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Chynna72</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r461015771-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -465,9 +432,6 @@
     <t>Our 1st night was across the parking lot because the prices were more reasonable. We stayed here for a night. Great accommodations as usual. Spent a few days enjoying the French Quarter &amp; the French Market..and a nice visit with family..home-made gumbo to die for....just never long enough.More</t>
   </si>
   <si>
-    <t>BiaR75</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r453493844-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -495,9 +459,6 @@
     <t>The hotel is clean, beds are comfortable and it has a friendly atmosphere. You can borrow games and DVD to play with the family. We stayed there to save money with parking in New Orleans (most of the hotels in NOLA charges 25 to 50 dollars). It has a small kitchen were you can cook some meals and a supermarket near by.The best thing in this hotel is the staff. Everybody is sooo friendly. The girl that did our check in -- Ly Shonda -- was so nice and helpful. The best. Even with all of these good things for the price that we pay I wouldn't stay there again once that if you go to NOLA you will need a car anyway and will need to pay for the parking anyway. The Wi-Fi was ok but could be better.Pillows were very high. Not comfortable but Ly Shonda gave me a nice one after I've asked her. The rooms were small for a party of 4 but for one night is OK.More</t>
   </si>
   <si>
-    <t>jim k</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r443309143-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -525,9 +486,6 @@
     <t>My stay was to be 3 weeks but the overall satisfaction at this location fell short.   My rooms bathroom sink was clogged before I even used it. There were no maintenance personnel on site so I had to move rooms.That is a pain after you unpack and stock the refrigerator. The next room had a smell to it.Not sure what it was but it was annoying.The internet was marginal at best and my tv remote wouldn't work from the bed.You had to get up and closer to it to change channels.The road traffic was rather loud in the room.  So many hotels have a minimal breakfast but this has none. There are better places to stay.More</t>
   </si>
   <si>
-    <t>Colette E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r441908800-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -552,9 +510,6 @@
     <t>This little gem is sparkling clean, with pet friendly accommodations that don't encroach on non-pet  guests, and smoking is restricted to top floor only. The staff is warm and welcoming, especially Renée, the night manager! Thanks for a great visit! On a side note, the nearby Mc Donald's is a definite NO THANKS! Couldn't get our order right in three tries, and they were pissed we wanted it that way. More</t>
   </si>
   <si>
-    <t>delphirook</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r435611892-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -582,9 +537,6 @@
     <t>The staff was friendly and extremely helpful. The room was clean and comfortable. Never ran out of hot water and the shower was stimulating. The bed were comfortable and beautifully made. I had trouble figuring out the stovetop but that was probably just me. We were anxious to get to the quarter so we didn't spend much time lounging in the room. When we did we felt at home. I read other reviews that mentioned bugs. Roaches are extremely common in the south. BUT, I didn't see any at all.More</t>
   </si>
   <si>
-    <t>Michelle S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r428936345-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -612,9 +564,6 @@
     <t>Clean rooms and very spacious. Very accommodating staff and everyone we interacted with was amazing. Share an exterior pool with a nearby property. Would recommend. Stayed in July for 4 nights.  Have no complaints.More</t>
   </si>
   <si>
-    <t>dyneal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r411120623-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -642,9 +591,6 @@
     <t>We recently stayed here while dropping off my niece at a nearby college and it was super convenient. It was a quiet stay with a Waffle House in the parking lot and it was a pretty good Waffle House to visit. The food was fast, tasty and affordable. The hotel was clean and the staff was great, even when we requested to change rooms after a small issue with our room. The room switch was fast and painless.More</t>
   </si>
   <si>
-    <t>Melissa M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r377964597-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -672,9 +618,6 @@
     <t>We were so happy to find such a nice place  to stay last minute on Memorial Day weekend. The staff was so helpful and the rooms were very nice and equipped with small kitchens. The grounds were patrolled by security 24/7. If we ever come back to this area, we will definitely give them a call for reservations before leaving home. I would also like to mention the price was very affordable. Thank you Vincent, Mandi and all the staff for excellent service.More</t>
   </si>
   <si>
-    <t>Gregory H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r375973789-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -699,9 +642,6 @@
     <t>Our first experience staying in CWS, loved everything about it except.... our stove didn't work. Due to this, we went off our budget with purchasing food out.  Purchasing food out was not an issue due to we had plenty to choose from, but again due to budgets we had our  hearts set on cooking in CWS. Oh one other issue, the pillows were too hard, perhaps if there were an assortment of pillows softness would have been greatMore</t>
   </si>
   <si>
-    <t>Gerard F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r373942255-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -726,9 +666,6 @@
     <t>I am definetly a convert. I really appreciate the accommodations and friendliness of the employees at this location.I recieved a free upgrade to a Suite while only paying the standard room rate, there was plenty of room in the suite, and the kitchen facilities made me feel right at home.The cost of this hotel room was considerably less than any other comperable hotel in the area, it was still close enough to the Downtown New Orleans area and this property is very clean + they have very nice excercise facilities.More</t>
   </si>
   <si>
-    <t>mimosley</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r371900295-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -753,9 +690,6 @@
     <t>The stay was awesome!! My family and I came down for a family reunion which wasn't too far from the hotel at first I wasn't to sure about stayin here because I saw a lot of reviews that wasn't to good but I must say most of those reviews are NOT TRUE!!! my Family and I enjoyed our stay. Upon checkin we had an issue that took between 15-20 to resolve but the agent Myreiya worked with us without a problem.......The rooms are nice,it smells real good,bed are comfortable, front desk and housekeeping staff are great,full kitchen, so we was able to cook breakfast. The only bad thing is the elevator is really slow but other than that We love this hotel see you next year Myreiya and staff! More</t>
   </si>
   <si>
-    <t>Torments237</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r368015928-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -783,9 +717,6 @@
     <t>I stayed at this hotel with a couple friends. We traveled to New Orleans for a game with our league. The gentleman at the front desk was super helpful! From recommending a great resteraunt the first night (and calling ahead for us for reservations), and tips and where to go in the French quarter. All and all was a great experience. And was only about a 20 minute drive from the French quarter. Of happily stay again.More</t>
   </si>
   <si>
-    <t>MattKerryanna D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r361743881-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -810,9 +741,6 @@
     <t>We came here on business , and brought our daughter and her two friends along. We had 2 rooms. When we arrived we were met by Kayla at the front desk. After a 9 hour trip let me just say her smile and personality were appreciated. Our booking company made some errors on our rooms, Kayla quickly made adjustments.For that I thank her!!! Now heres what I need to say...We saw the negative reviews about this place so we were a little be nervous on what we would find, Let me tell you...those reviews were wrong!! wrong !!! wrong!!! These room were beautiful!! clean and the beds are comfortable, But its what the rooms have that will shock frequent travelers such as us!! The kitchenettes are wonderful. Weve traveled quite a bit for business and have stayed in hotels from Hawaii to Texas, Pennsylvania and more. This hotel for the price is now in our top 5!!! We would recommend it for Business, Family ect. Yes they don't have an awning and its a  simple front entry, and yes there is no continental breakfast, but it is still worth it!!!!Our stay was enjoyable and we will come and stay here again!!! Thank you Kayla and all the other great staff, we appreciate you!!!More</t>
   </si>
   <si>
-    <t>disapp2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r361627998-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -837,9 +765,6 @@
     <t>Do NOT stay here!  We traveled to New Orleans with family members and booked 3 rooms.  We arrived at the hotel a little after midnight.  When we walked into our rooms 2 were smoking room.  We called the front desk and were told thatroom priority was on a first come first serve basis.  Mind you we booked our rooms several days before.  Then we were told we could not switch as they had no smoke free rooms.  Since we were very tired from a long drive we stayed and thought we could get a new room in the morning.  Next day no luck either.  The room smelled mildew and wreaked of smoke.  Fell asleep with a headache and woke up with one.  The bathroom tub was disgusting and still had hair in the shower.  I was very disappointed with candle wood as we have often stayed in their hotels with no problems.  We are even gold members.  Very displeased with this Candlewood hotel!!!More</t>
   </si>
   <si>
-    <t>GeraldH35883</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r361016763-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -861,9 +786,6 @@
     <t>This was a nice place to stay while I was working in Louisiana.  The rooms have a full size refrigerator, 2 burner cooktop, microwave and cabinets complete with dishes, silverware and cookware.  Room was spacious and the bed was very comfortable. There was no pool, but provided a couple grills outside.  If you need to do laundry, the hotel had machines that were of no cost;  only have to provide detergent.More</t>
   </si>
   <si>
-    <t>mom2tomany</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r360226081-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -885,9 +807,6 @@
     <t>My sister and I were in New Orleans for three months while waiting for a transplant at a nearby hospital and had the pleasure of staying at this Candlewood suites.  Not only was the room immaculate and well stocked but the employees went above and beyond for anything we might need. Alicia, Kayla and Shirleen made us feel like family. The staff at this hotel is amazing. Kudos to a truly outstanding staff.More</t>
   </si>
   <si>
-    <t>Jeff S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r354185242-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -906,9 +825,6 @@
     <t>Being very weary from the day and hoping for the best when we found this online, we decided to save $40 or so from other hotel quotes and give this place a try. When we walked in to our room, we were stunned. Everything you could ask for - full size fridge and icemaker, dishwasher, fully stocked cabinets with dishes, glasses, salt, pepper, coffee, creamer, sugar packs, popcorn for the full size microwave, table, recliner, very comfy beds and fully stocked bathroom - for $89!!!. Beats the pants off the other hotel rooms in the area. No pool, but we weren't staying there long enough for it to matter. Free WiFi for the kids. If you're staying around New Orleans, this place is definitely worth it. More</t>
   </si>
   <si>
-    <t>Jeanne C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r348468570-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -936,9 +852,6 @@
     <t>This is the third time we've stayed at the Candlewood Suites in Avondale. We have always had a nice, spacious room, clean and comfortable.  All of the staff members are friendly and want to make sure your have everything you need. A GREAT place to stay especially if you are staying for a week or longer. I highly recommend this hotel for your next trip to the New Orleans area!More</t>
   </si>
   <si>
-    <t>Timmy S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r346447664-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -963,9 +876,6 @@
     <t>Hotel was above and beyond.Service was great and everyone was very hospitable.Rooms were large, clean and the fully furnished kitchens made it feel more like an apartment than a hotel room.I would recommend this hotel to anyone who is in the areaMore</t>
   </si>
   <si>
-    <t>J H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r343209940-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -990,9 +900,6 @@
     <t>This was my second time staying at this hotel and my first time writing a trip advisor review.  My first experience was ok except for a long wait at check in from a rude desk clerk named Alicia.  She was very busy helping other customers to make arrangements and stayed on the phone while I waited to check in. She seemed to be flirting with them and then made sure they would give her a good write up review after what she did for them.  Finally, I checked in almost 10 minutes after and she was no where near as nice to me as she was with them.  The second visit, about a week later, I stayed longer with work.  A very nice man named Vince checked me in who was very polite and professional-not like my first time with Alicia.  This time I had to change rooms because of the air not working, which was ok.  I did this on a night when Alicia was working again, and this time she was nicer BUT she made it very clear how she was going out of her way to move my room since she was full.  I do not see how this is a big deal since she had to move me because the air was not working.  She then handed me a card with her name on it and told me to please give her a good review on...This was my second time staying at this hotel and my first time writing a trip advisor review.  My first experience was ok except for a long wait at check in from a rude desk clerk named Alicia.  She was very busy helping other customers to make arrangements and stayed on the phone while I waited to check in. She seemed to be flirting with them and then made sure they would give her a good write up review after what she did for them.  Finally, I checked in almost 10 minutes after and she was no where near as nice to me as she was with them.  The second visit, about a week later, I stayed longer with work.  A very nice man named Vince checked me in who was very polite and professional-not like my first time with Alicia.  This time I had to change rooms because of the air not working, which was ok.  I did this on a night when Alicia was working again, and this time she was nicer BUT she made it very clear how she was going out of her way to move my room since she was full.  I do not see how this is a big deal since she had to move me because the air was not working.  She then handed me a card with her name on it and told me to please give her a good review on this trip advisor since she went out of her way to move my room since they were full.  She told me that the winner of the most reviews gets football tickets and she wanted to win.  So here I am writing my first trip review and it is not a good one.  I feel that some of the staff at this hotel such as Vince and the Girl that worked the morning - think her name is Kayla, are very nice and should be working in a hotel.  As far as the hotel, it can use some normal upgraded and repairs.  I now stay about 10 miles down the road at La Quinta, and have no problems at all with the staff and the hotel is new and about 50.00 a night cheaper.More</t>
   </si>
   <si>
-    <t>Gil N Chris V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r340729207-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1017,9 +924,6 @@
     <t>First room had roaches, moved to another room where all the dishes were dirty, then ac/heat unit kept turning off. Front desk told me they would fix it, few days later I turned on the heat &amp; I smelled a strong smell of something burning &amp; then the breaker snapped. I notified 3 employees about the burnt smell. Moved into room number 3, above the stove microwave is broken. I also woke up with a bug on my sheets &amp; found ROACHES again in the kitchen!More</t>
   </si>
   <si>
-    <t>cdr05</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r334837952-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1047,9 +951,6 @@
     <t>Surprisingly great. This was our first stay in this type of hotel. (Weekly or longer). They don't refresh the linens daily. But they will if you ask. Trash can be left outside the door. And you can do laundry for free. Free coffee and tea 24 hrs. a day. But hey what a great setup in the room. Coffee, fridge, microwave, stove, dishwasher....Let's just say it will bring us back whenever we return to this area. Say hi to Alicia when you visit. Great staff!More</t>
   </si>
   <si>
-    <t>Tbarks7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r333592355-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1065,9 +966,6 @@
     <t xml:space="preserve">We arrived into town late after a long day of driving and Keimyereia took great care of myself and my girlfriend. The room was ready and had everything that we needed. Overall a great stay! If we come back through New Orleans anytime soon, we will be staying here again. </t>
   </si>
   <si>
-    <t>Jimmie J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r332553331-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1083,9 +981,6 @@
     <t>We recently stayed at this hotel and could not have been more pleased. The front desk hostess, Alicia was EXTRAORDINARY!! She helped us with a confusion in the pre-booking, got us settled in a clean room and did it all with efficiency and a smile.  It is this type of customer service that keeps us coming back to this particular place vs another hotel in the area.  Thank You Alicia! You are a true asset to the Candlewood Suites chain of hotels.</t>
   </si>
   <si>
-    <t>Drake H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r331114462-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1113,9 +1008,6 @@
     <t>Stayed here in Avondale on business for over 2 months. The ENTIRE staff made my stay better than if I were home. Great hospitality, took care of my room on schedule every week and the guest service front desk was first class all the way. Ms. Alicia Johnson would be on shift most evenings when I would return to the hotel. Her character and integrity that I witnessed her display with each customer was top notch. Couldn't have asked for a better experience. WAY TO GO CANDLEWOOD SUITES AVONDALE, LOUISIANA!!!More</t>
   </si>
   <si>
-    <t>David S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r330608529-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1134,9 +1026,6 @@
     <t>I had an excellent visit at candlewood suites.  The hotel was nice and exceptional welcoming.  The front desk agent Alicia was very helpful and courteous.  She was very vibrant and energetic and in tune with the needs of me and the other guest.  When i visit the area again i will definitely stay here.More</t>
   </si>
   <si>
-    <t>Fred T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r329833756-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1161,9 +1050,6 @@
     <t>Took the entire family to Bayou Classic on 11/28/15. We had a wonderful time with our stay. This is our second year staying at Candlewood Suites in Avondale La.. The rooms are always clean with a fresh clean smell and plenty of fresh towels. The staff is really friendly and very very helpful. I really appreciate their kindness. There was one little situation that come up and they have one staff member that handle it. She was very professional. She handle the situation with a beautiful smile which made our stay so pleasant. She really was a joy to to see there. Thank you!!!  ALICIA J. Wonderful job!!! We will be back to stay again&gt;More</t>
   </si>
   <si>
-    <t>Jimmy W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r328628143-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1182,9 +1068,6 @@
     <t>We got in late and were extremely exhausted after a 7.5 hour drive. We came to tend to a family matter and had never been to Louisiana before. Not knowing what to expect, we were so comforted when we walked in the lobby to be greeted by Alicia. She, as well as the rest of the staff, were so accommodating and helpful. We wouldn't think twice about staying here again in the future. More</t>
   </si>
   <si>
-    <t>Jessica W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r327712113-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1209,9 +1092,6 @@
     <t>We came to Louisiana for a family matter and wanted a reasonably priced hotel with a kitchen. We found Candlewood Suites in Avondale. We got in late and were greeted by Alicia. She was delightful to be around. Her and the rest of the staff were extremely accomodating throughout our whole stay. The hotel was nice and clean and suited our needs perfectly.More</t>
   </si>
   <si>
-    <t>Andrea H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r327385816-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1227,9 +1107,6 @@
     <t xml:space="preserve">I love the candlewood hotel chain. It's the only hotel i will stay in.  Rooms are always clean with fresh towels and linens.  The hotel staff are always friendly and helpful. I've had the pleasure of meeting Alica who's always cheerful, polite, friendly, and ready to make my stay convenient. </t>
   </si>
   <si>
-    <t>Rodney J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r327043393-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1254,9 +1131,6 @@
     <t>Great service and clean room. The whole staff is very friendly and helpful especially Alicia at the front desk. She goes above and beyond to make sure that we are happy during our stay. She recommended things to do, places to go and restautants to eat. I will definitely be back here.More</t>
   </si>
   <si>
-    <t>Dasher2005</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r324070907-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1284,9 +1158,6 @@
     <t>We stayed here for a few days ahead of our cruise. As we hired a car it was only 20 mins drive from downtown New Orleans. Very clean and really comfy beds.Staff attentive and good facilities on site. Excellent wifiMore</t>
   </si>
   <si>
-    <t>YellowJJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r321608937-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1311,9 +1182,6 @@
     <t>I have to say, I've never stayed in a Candlewood Suites hotel as most seem to be a step below acceptable, but this one surprised me in every which way. Clean, Fresh Smelling, Wonderful smiling Employees, Well stocked. Who knew a budget IHG property can give a high tier brand like Intercontinental a run for their money. If most of IHG hotels were like this, I would consider attaining elite status with them again; unfortunately that's not the case so I stick with my gold status with Hilton/Marriot. Still I would not hesitate to stay here again, even over the full service hotels in the french quarter. Well done to the Candlewood Suites Avondale.More</t>
   </si>
   <si>
-    <t>Fisher238</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r318072031-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1329,9 +1197,6 @@
     <t>Didn't know what to expect when we booked this motel, but we were pleasantly surprised.  The rooms are mini-suites, with a little kitchenette - fridge/freezer; microwave; 2 ring burner; dishwasher etc.  The linens are clean and fresh and in plentiful supply.  The rooms are clean, very important, and basic but fair.The housekeeping staff do a very good job, and the general appearance of the motel is clean and tidy.The front desk staff, Kayla, was first rate.  She was very professional, but oh so helpful with just about everything.If you need a place in this area, give it a try, you'll probably be pleased.</t>
   </si>
   <si>
-    <t>Todd S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r313502631-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1350,9 +1215,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Derek E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r307822885-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1377,9 +1239,6 @@
     <t>My wife and i stayed this passed weekend while visiting new orleans.  We arrived late Friday night around 11 to a warm,  welcoming smile and friendly hostess. The room was spectacular and very clean!  The staff was extremely helpful and courteous. We will definitely be staying here again in the future.  Thank you for a wonderful weekend! More</t>
   </si>
   <si>
-    <t>edubble00</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r302014184-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1407,9 +1266,6 @@
     <t>Passed thru a couple of times when plane arrived late night for work.  Rooms have been acceptable and the fitness center gets the job done.  Though it is on the major hghway, I've had no problem with noise.More</t>
   </si>
   <si>
-    <t>tompkinslaw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r277391066-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1437,9 +1293,6 @@
     <t>Had a month long stay for business. Staff was extremely attentive and responsive, friendly, good natured, and professional. Clean rooms and all the amenities necessary for an extended stay. Facilities clean and useful.More</t>
   </si>
   <si>
-    <t>Edward C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r269918463-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1467,9 +1320,6 @@
     <t>The amenities were perfect and very affordable for a lengthy stay away from home. The service was great and all the employees were always friendly and dedicated to making our stay very comfortable. Thanks to all at Candlewood Suites Avondale-New Orleans.More</t>
   </si>
   <si>
-    <t>elkayandboro</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r242447472-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1497,9 +1347,6 @@
     <t>We stayed here for a night over Thanksgiving weekend. I've traveled all over the country and stayed in dozens of hotel chains, but never in a Candlewood Suites. I was surprised at how nice and roomy the room was. There's a stovetop, big microwave, and a full size refrigerator in the room. They don't have free breakfast as most hotels do, but there's a Waffle House and Mcdonald's within walking distance, and a mini convenience store in the hotel. The wifi was fast and free. You can borrow a blender, food processor, board games, etc. from the 'Lending Locker' for free, I think. The folks working there were very nice and helpful. I liked it so much, I reserved rooms for 2 separate visits we're making in the future. I've stayed in virtually every hotel on the West Bank of New Orleans during our visits to the grandkids, but will be staying here from now on.More</t>
   </si>
   <si>
-    <t>Erica J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r241553904-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1521,9 +1368,6 @@
     <t>I recently stayed at the Candlewood Suites in Avondale and can't say enough about the service, room amenities and overall location.  The hotel is just a short drive from downtown New Orleans and is a short drive from restaurants and shopping.  It is a hidden gem and features all of the comforts of home.  The staff is amazing, you feel like you are with friends and family as soon as you walk in the door.  Will definitely stay here in the future and would recommend the property to anyone planning on visiting Avondale and New Orleans.More</t>
   </si>
   <si>
-    <t>jfc415</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r237263448-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1551,9 +1395,6 @@
     <t>First I have to say I have stayed at other Candlewood Suites and this one did not disappoint us.Upon arrival the desk clerk was very nice and helpful. He took the extra time to explain how to activate the ice maker in the freezer as well as activation code for the free wifi. The room was very nice and really designed for extended stays although we were only here for one night.  The kitchen area had a full size refrigerator with built in ice maker, a small cook top, microwave and kitchen sink.  The cabinets even had dishes if you needed them.  Everything was very clean and well organized.  The bathroom was spacious and also very clean. The bed was clean and comfortable.  This is a great hotel for one night or for an extended stay. I would not hesitate recommending this Hotel to any friend or relative.More</t>
   </si>
   <si>
-    <t>Karen P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r234364765-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1578,9 +1419,6 @@
     <t>This was a last minute trip and I didnt have a reservation due to me arriving later.  But the Desk clerk that waited on me went above and beyond his call of duty to get me a hotel room in the hotel.  I thank GOD for this young man!!!! I wouldnt had to sleep in my car with my 4 yrs old grandson.  Customer service was excellent.  I will recommend this chain to anyone.  This was my first time staing at this hotel chain but I will stay again!!!More</t>
   </si>
   <si>
-    <t>El_Tico2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r221793686-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1608,9 +1446,6 @@
     <t>For working while traveling excellent cost/benefits ratio.  Ten minutes from downtown New Orleans with clean and spacious rooms and a well-designed kitchenette,  in-house laundry, gym, wi-fi, next to large grocery store, waffle house and other fast-food restaurants on the vicinity.  The people at the front desk were super helpful and friendly.  Be careful while manoeuvring to get into the parking lot in front of the hotel. So when coming from the highway,  must take the middle lane to the left  that has multiple one-way signs at different points.  Shattered glass on the asphalt a reminder to be careful.More</t>
   </si>
   <si>
-    <t>Mitch J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r221311583-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1638,9 +1473,6 @@
     <t>Spending an extended stay here will be enjoyable. The staff, especially Tony the assistance manager, are delightful and very helpful. When we arrived we were greeted promptly and given wonderful service. We have two pets and they were welcomed as well. Our time here is about half over but to date we are very happy with every aspect of this wonderful hotel.More</t>
   </si>
   <si>
-    <t>Newell R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r216594561-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1668,9 +1500,6 @@
     <t>All I have to say is I hope all Candlewood suites are not like this one. the room was good not great.  when you check in make sure you ask if there are any HIDDEN charges going to show up on you credit card.More</t>
   </si>
   <si>
-    <t>MariefromGeorgia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r211572154-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1683,16 +1512,13 @@
     <t>Room Has Everything, INCLUDING a Kitchen Sink!</t>
   </si>
   <si>
-    <t>My dad and I stayed in room 104 on the ground floor April 13, 2014 and it was one of the nicest hotels that we have ever stayed in next to the Wyndham in Memphis Tennessee(too mom to Graceland).We stayed in a lot of motels on our Father/Daughter road trip from Ga to Louisiana, to Oklahoma, to Missouri in April and May 2014 and this was one of the newest and nicest, fully loaded hotels that we stayed in.  The girl at the front desk was very friendly and helpful when I asked her if there was a computer room available and to my delight there was a Business  Center.  I explored a little and saw the Fitness Center, BBQ grills outside, and the clean Guest Laundry room.  Our room was extra clean, smelled fresh and nice, no one had smoked in this room you could tell.  What delighted me was the kitchen that included cups and dishes too!  Winn Dixie was just down the road if you wanted to cook your own food or warm up a snack in the microwave.  The fridge was nice and cold.  Pity we only stayed in Louisiana one day and night, this would have been our base camp had we had more time to explore.  I felt very safe in this location which was just a  few blocks from where my niece and her family lived making our brief visit even more convenient....My dad and I stayed in room 104 on the ground floor April 13, 2014 and it was one of the nicest hotels that we have ever stayed in next to the Wyndham in Memphis Tennessee(too mom to Graceland).We stayed in a lot of motels on our Father/Daughter road trip from Ga to Louisiana, to Oklahoma, to Missouri in April and May 2014 and this was one of the newest and nicest, fully loaded hotels that we stayed in.  The girl at the front desk was very friendly and helpful when I asked her if there was a computer room available and to my delight there was a Business  Center.  I explored a little and saw the Fitness Center, BBQ grills outside, and the clean Guest Laundry room.  Our room was extra clean, smelled fresh and nice, no one had smoked in this room you could tell.  What delighted me was the kitchen that included cups and dishes too!  Winn Dixie was just down the road if you wanted to cook your own food or warm up a snack in the microwave.  The fridge was nice and cold.  Pity we only stayed in Louisiana one day and night, this would have been our base camp had we had more time to explore.  I felt very safe in this location which was just a  few blocks from where my niece and her family lived making our brief visit even more convenient.  PLUS, there was a Waffle House  a few steps away across the parking lot where we had breakfast with my niece and her family early the next morning before heading out for Oklahoma.  The beds were large and had crisp, clean, new sheets on them and the top blanket was fairly new and not threadbare like some of the other places we stayed.  Remember, it was April and still cold at night. The TV was a flat screen whereas in the other hotels it was an old boxy thing on its lasts legs.  Not that we watched but 30 minutes of TV before falling asleep in those comfy beds with fluffy pillows.  The tub and bathroom was ample size with nice HOT water available unlike some places we stayed had luck-warm water in tiny bathrooms.  All in all, this was a wonderful place to stay and I would stay there again.  Yes, it costs a little more than your Days Inn or Econolodge, but remember what my Mama used to say, "You get what you pay for" and this was definitely worth every penny to have a great nice sleep, safe secure feeling, peace of mind, no worries, hot shower, comfy bed, food within walking distance, and a great location to jump back on the highway and be on our way. P.S. coffee right in your own room any time you want it.  The ground floor...MoreShow less</t>
+    <t>My dad and I stayed in room 104 on the ground floor April 13, 2014 and it was one of the nicest hotels that we have ever stayed in next to the Wyndham in Memphis Tennessee(too mom to Graceland).We stayed in a lot of motels on our Father/Daughter road trip from Ga to Louisiana, to Oklahoma, to Missouri in April and May 2014 and this was one of the newest and nicest, fully loaded hotels that we stayed in.  The girl at the front desk was very friendly and helpful when I asked her if there was a computer room available and to my delight there was a Business  Center.  I explored a little and saw the Fitness Center, BBQ grills outside, and the clean Guest Laundry room.  Our room was extra clean, smelled fresh and nice, no one had smoked in this room you could tell.  What delighted me was the kitchen that included cups and dishes too!  Winn Dixie was just down the road if you wanted to cook your own food or warm up a snack in the microwave.  The fridge was nice and cold.  Pity we only stayed in Louisiana one day and night, this would have been our base camp had we had more time to explore.  I felt very safe in this location which was just a  few blocks from where my niece and her family lived making our brief visit even more convenient....My dad and I stayed in room 104 on the ground floor April 13, 2014 and it was one of the nicest hotels that we have ever stayed in next to the Wyndham in Memphis Tennessee(too mom to Graceland).We stayed in a lot of motels on our Father/Daughter road trip from Ga to Louisiana, to Oklahoma, to Missouri in April and May 2014 and this was one of the newest and nicest, fully loaded hotels that we stayed in.  The girl at the front desk was very friendly and helpful when I asked her if there was a computer room available and to my delight there was a Business  Center.  I explored a little and saw the Fitness Center, BBQ grills outside, and the clean Guest Laundry room.  Our room was extra clean, smelled fresh and nice, no one had smoked in this room you could tell.  What delighted me was the kitchen that included cups and dishes too!  Winn Dixie was just down the road if you wanted to cook your own food or warm up a snack in the microwave.  The fridge was nice and cold.  Pity we only stayed in Louisiana one day and night, this would have been our base camp had we had more time to explore.  I felt very safe in this location which was just a  few blocks from where my niece and her family lived making our brief visit even more convenient.  PLUS, there was a Waffle House  a few steps away across the parking lot where we had breakfast with my niece and her family early the next morning before heading out for Oklahoma.  The beds were large and had crisp, clean, new sheets on them and the top blanket was fairly new and not threadbare like some of the other places we stayed.  Remember, it was April and still cold at night. The TV was a flat screen whereas in the other hotels it was an old boxy thing on its lasts legs.  Not that we watched but 30 minutes of TV before falling asleep in those comfy beds with fluffy pillows.  The tub and bathroom was ample size with nice HOT water available unlike some places we stayed had luck-warm water in tiny bathrooms.  All in all, this was a wonderful place to stay and I would stay there again.  Yes, it costs a little more than your Days Inn or Econolodge, but remember what my Mama used to say, "You get what you pay for" and this was definitely worth every penny to have a great nice sleep, safe secure feeling, peace of mind, no worries, hot shower, comfy bed, food within walking distance, and a great location to jump back on the highway and be on our way. P.S. coffee right in your own room any time you want it.  The ground floor rooms are a God-send for us older folks with health problems.MoreShow less</t>
   </si>
   <si>
     <t>April 2014</t>
   </si>
   <si>
-    <t>My dad and I stayed in room 104 on the ground floor April 13, 2014 and it was one of the nicest hotels that we have ever stayed in next to the Wyndham in Memphis Tennessee(too mom to Graceland).We stayed in a lot of motels on our Father/Daughter road trip from Ga to Louisiana, to Oklahoma, to Missouri in April and May 2014 and this was one of the newest and nicest, fully loaded hotels that we stayed in.  The girl at the front desk was very friendly and helpful when I asked her if there was a computer room available and to my delight there was a Business  Center.  I explored a little and saw the Fitness Center, BBQ grills outside, and the clean Guest Laundry room.  Our room was extra clean, smelled fresh and nice, no one had smoked in this room you could tell.  What delighted me was the kitchen that included cups and dishes too!  Winn Dixie was just down the road if you wanted to cook your own food or warm up a snack in the microwave.  The fridge was nice and cold.  Pity we only stayed in Louisiana one day and night, this would have been our base camp had we had more time to explore.  I felt very safe in this location which was just a  few blocks from where my niece and her family lived making our brief visit even more convenient....My dad and I stayed in room 104 on the ground floor April 13, 2014 and it was one of the nicest hotels that we have ever stayed in next to the Wyndham in Memphis Tennessee(too mom to Graceland).We stayed in a lot of motels on our Father/Daughter road trip from Ga to Louisiana, to Oklahoma, to Missouri in April and May 2014 and this was one of the newest and nicest, fully loaded hotels that we stayed in.  The girl at the front desk was very friendly and helpful when I asked her if there was a computer room available and to my delight there was a Business  Center.  I explored a little and saw the Fitness Center, BBQ grills outside, and the clean Guest Laundry room.  Our room was extra clean, smelled fresh and nice, no one had smoked in this room you could tell.  What delighted me was the kitchen that included cups and dishes too!  Winn Dixie was just down the road if you wanted to cook your own food or warm up a snack in the microwave.  The fridge was nice and cold.  Pity we only stayed in Louisiana one day and night, this would have been our base camp had we had more time to explore.  I felt very safe in this location which was just a  few blocks from where my niece and her family lived making our brief visit even more convenient.  PLUS, there was a Waffle House  a few steps away across the parking lot where we had breakfast with my niece and her family early the next morning before heading out for Oklahoma.  The beds were large and had crisp, clean, new sheets on them and the top blanket was fairly new and not threadbare like some of the other places we stayed.  Remember, it was April and still cold at night. The TV was a flat screen whereas in the other hotels it was an old boxy thing on its lasts legs.  Not that we watched but 30 minutes of TV before falling asleep in those comfy beds with fluffy pillows.  The tub and bathroom was ample size with nice HOT water available unlike some places we stayed had luck-warm water in tiny bathrooms.  All in all, this was a wonderful place to stay and I would stay there again.  Yes, it costs a little more than your Days Inn or Econolodge, but remember what my Mama used to say, "You get what you pay for" and this was definitely worth every penny to have a great nice sleep, safe secure feeling, peace of mind, no worries, hot shower, comfy bed, food within walking distance, and a great location to jump back on the highway and be on our way. P.S. coffee right in your own room any time you want it.  The ground floor...More</t>
-  </si>
-  <si>
-    <t>wearetheones</t>
+    <t>My dad and I stayed in room 104 on the ground floor April 13, 2014 and it was one of the nicest hotels that we have ever stayed in next to the Wyndham in Memphis Tennessee(too mom to Graceland).We stayed in a lot of motels on our Father/Daughter road trip from Ga to Louisiana, to Oklahoma, to Missouri in April and May 2014 and this was one of the newest and nicest, fully loaded hotels that we stayed in.  The girl at the front desk was very friendly and helpful when I asked her if there was a computer room available and to my delight there was a Business  Center.  I explored a little and saw the Fitness Center, BBQ grills outside, and the clean Guest Laundry room.  Our room was extra clean, smelled fresh and nice, no one had smoked in this room you could tell.  What delighted me was the kitchen that included cups and dishes too!  Winn Dixie was just down the road if you wanted to cook your own food or warm up a snack in the microwave.  The fridge was nice and cold.  Pity we only stayed in Louisiana one day and night, this would have been our base camp had we had more time to explore.  I felt very safe in this location which was just a  few blocks from where my niece and her family lived making our brief visit even more convenient....My dad and I stayed in room 104 on the ground floor April 13, 2014 and it was one of the nicest hotels that we have ever stayed in next to the Wyndham in Memphis Tennessee(too mom to Graceland).We stayed in a lot of motels on our Father/Daughter road trip from Ga to Louisiana, to Oklahoma, to Missouri in April and May 2014 and this was one of the newest and nicest, fully loaded hotels that we stayed in.  The girl at the front desk was very friendly and helpful when I asked her if there was a computer room available and to my delight there was a Business  Center.  I explored a little and saw the Fitness Center, BBQ grills outside, and the clean Guest Laundry room.  Our room was extra clean, smelled fresh and nice, no one had smoked in this room you could tell.  What delighted me was the kitchen that included cups and dishes too!  Winn Dixie was just down the road if you wanted to cook your own food or warm up a snack in the microwave.  The fridge was nice and cold.  Pity we only stayed in Louisiana one day and night, this would have been our base camp had we had more time to explore.  I felt very safe in this location which was just a  few blocks from where my niece and her family lived making our brief visit even more convenient.  PLUS, there was a Waffle House  a few steps away across the parking lot where we had breakfast with my niece and her family early the next morning before heading out for Oklahoma.  The beds were large and had crisp, clean, new sheets on them and the top blanket was fairly new and not threadbare like some of the other places we stayed.  Remember, it was April and still cold at night. The TV was a flat screen whereas in the other hotels it was an old boxy thing on its lasts legs.  Not that we watched but 30 minutes of TV before falling asleep in those comfy beds with fluffy pillows.  The tub and bathroom was ample size with nice HOT water available unlike some places we stayed had luck-warm water in tiny bathrooms.  All in all, this was a wonderful place to stay and I would stay there again.  Yes, it costs a little more than your Days Inn or Econolodge, but remember what my Mama used to say, "You get what you pay for" and this was definitely worth every penny to have a great nice sleep, safe secure feeling, peace of mind, no worries, hot shower, comfy bed, food within walking distance, and a great location to jump back on the highway and be on our way. P.S. coffee right in your own room any time you want it.  The ground floor rooms are a God-send for us older folks with health problems.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r202333453-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
@@ -1719,9 +1545,6 @@
     <t>Ok so let me start with the good. The girl at the front desk sadly can't remember her name was very very nice with a great smile, my room was very clean, the gym was good and I found the location very convinient, just a 15-20 minute drive to the city with a supermarket right next door and places to eat. Now the bad. The hallways smell so bad! like an old rug smell, the place was secure but it made me worried when I check it the fact that there were cameras every where!! and the girl at the front told me after 8pm you need it your key and phone to come in which of course I appreciated the fact that they were taking so much precaution on keeping there customers safe but also made me worried about what has happend!! But all in all we were there 3 days and asides from the people smoking right infront of the hotel (which they should make a rule that they can't!) everything else felt safe, but it is a very empty area so just be extra carefull and don't leave anything in your car. So would I stay there again, yes because the room itself was good and the location was convinient. I guess it was safe enought compare to other places in New Orleans. Ah check out was not so good as I had to wait over 15...Ok so let me start with the good. The girl at the front desk sadly can't remember her name was very very nice with a great smile, my room was very clean, the gym was good and I found the location very convinient, just a 15-20 minute drive to the city with a supermarket right next door and places to eat. Now the bad. The hallways smell so bad! like an old rug smell, the place was secure but it made me worried when I check it the fact that there were cameras every where!! and the girl at the front told me after 8pm you need it your key and phone to come in which of course I appreciated the fact that they were taking so much precaution on keeping there customers safe but also made me worried about what has happend!! But all in all we were there 3 days and asides from the people smoking right infront of the hotel (which they should make a rule that they can't!) everything else felt safe, but it is a very empty area so just be extra carefull and don't leave anything in your car. So would I stay there again, yes because the room itself was good and the location was convinient. I guess it was safe enought compare to other places in New Orleans. Ah check out was not so good as I had to wait over 15 minutes becaus ethere was no one at the front desk. This was at about 8am, when the girl manage to make it she had her baby with her and look like she had just wake up, things happend so I gues sit was not her day but there should always be someone available or at least a note staying no one is on the desk until futher notice.More</t>
   </si>
   <si>
-    <t>Love_to_Travel36726</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r199705852-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1740,9 +1563,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>DavidDINO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r195682365-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1761,7 +1581,139 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>monkeysaurusrex</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r181733248-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>181733248</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Very Disappointing Stay For Me</t>
+  </si>
+  <si>
+    <t>We booked a King Studio Suite at this hotel after a busy day of working in the city and were too tired to drive too far. Upon were told that the the no King rooms were available b/c they weren't clean. The poor girl at the front counter tried to be as accommodating as she could and went to check all of the vacant rooms but to no avail. We ended up in a room with two doubles that was what they called clean. The toilet had spots on it that I had the joy of cleaning off. There were long  hairs all over the bathroom. The walls are very thin here as well and I woke up to the sound of the kids int he hallway sounding like they were right in the room with me. To top it off, upon check in, I asked for my IHG Member Reward gift since the IHG Member Rewards Sign was on the counter and was informed that they no longer give gifts to the rewards members.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Avondale-New Orleans, responded to this reviewResponded November 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2013</t>
+  </si>
+  <si>
+    <t>We booked a King Studio Suite at this hotel after a busy day of working in the city and were too tired to drive too far. Upon were told that the the no King rooms were available b/c they weren't clean. The poor girl at the front counter tried to be as accommodating as she could and went to check all of the vacant rooms but to no avail. We ended up in a room with two doubles that was what they called clean. The toilet had spots on it that I had the joy of cleaning off. There were long  hairs all over the bathroom. The walls are very thin here as well and I woke up to the sound of the kids int he hallway sounding like they were right in the room with me. To top it off, upon check in, I asked for my IHG Member Reward gift since the IHG Member Rewards Sign was on the counter and was informed that they no longer give gifts to the rewards members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r165814301-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>165814301</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>Good, not great</t>
+  </si>
+  <si>
+    <t>Takes a good 20 minutes to get here from downtown New Orleans.  Grocery store and pharmacy within walking distance. Room excellent -- large, comfortable, quiet with well-equipped kitchen and very comfortable bed.  Staff polite but a bit lackadaisical.  Wifi was not working and employee response was, "Yeah, that happens.  I can't use either."  No pool.  Asked about health club access advertised in hotel info booklet in room.  Staff had no idea what I was talking about.  When I asked her to find out, she called someone, but got no answer.  Wifi extremely slow when working.  Well equipped fitness room and free laundry.  Convenient parking. Very good shower.  Two computers (one with Internet access) &amp; one printer available for guests.  Need room key to enter building and all public areas.  Overall this is a pleasant place to stay, and I would come here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>cwsavondale, General Manager at Candlewood Suites Avondale-New Orleans, responded to this reviewResponded July 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2013</t>
+  </si>
+  <si>
+    <t>Takes a good 20 minutes to get here from downtown New Orleans.  Grocery store and pharmacy within walking distance. Room excellent -- large, comfortable, quiet with well-equipped kitchen and very comfortable bed.  Staff polite but a bit lackadaisical.  Wifi was not working and employee response was, "Yeah, that happens.  I can't use either."  No pool.  Asked about health club access advertised in hotel info booklet in room.  Staff had no idea what I was talking about.  When I asked her to find out, she called someone, but got no answer.  Wifi extremely slow when working.  Well equipped fitness room and free laundry.  Convenient parking. Very good shower.  Two computers (one with Internet access) &amp; one printer available for guests.  Need room key to enter building and all public areas.  Overall this is a pleasant place to stay, and I would come here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r162666893-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>162666893</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>Very clean and quiet</t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday night trip to New Orleans.  Our favorite French Quarter hotel was sold out.  I guess it was about 10 to 12 miles from NO French Quarter.  Rooms were quiet and clean.  The hotel looked newly renovated or maybe it just opened.  We did not arrive until midnight and our room was still available.  There was free wifi with a password given at check-in.  Parking was also free.  Hotel is located right next to Waffle House if you are a fan.  This is kind of an isolated located but was a great value for us on a Saturday night.  We enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>cwsavondale, General Manager at Candlewood Suites Avondale-New Orleans, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday night trip to New Orleans.  Our favorite French Quarter hotel was sold out.  I guess it was about 10 to 12 miles from NO French Quarter.  Rooms were quiet and clean.  The hotel looked newly renovated or maybe it just opened.  We did not arrive until midnight and our room was still available.  There was free wifi with a password given at check-in.  Parking was also free.  Hotel is located right next to Waffle House if you are a fan.  This is kind of an isolated located but was a great value for us on a Saturday night.  We enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r152999120-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>152999120</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>GREAT &amp; RELAXING STAY!</t>
+  </si>
+  <si>
+    <t>This is a really nice place to stay. Of all the times I've been to New Orleans, this is the first I've stayed in a hotel there. Naturally, I was very picky about the location and the safety of the area. We felt very safe and comfortable here. The desk clerk was very professional, informative, and courteous. The rooms are spacious, and they have everything you could possibly need! We had no trouble checking in, everything was speedy. Very clean!! I was definitely impressed with this hotel overall and would recommend this place to anyone. It is also budget friendly for being only about 20 min away from the French Quarter!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>cwsavondale, General Manager at Candlewood Suites Avondale-New Orleans, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>This is a really nice place to stay. Of all the times I've been to New Orleans, this is the first I've stayed in a hotel there. Naturally, I was very picky about the location and the safety of the area. We felt very safe and comfortable here. The desk clerk was very professional, informative, and courteous. The rooms are spacious, and they have everything you could possibly need! We had no trouble checking in, everything was speedy. Very clean!! I was definitely impressed with this hotel overall and would recommend this place to anyone. It is also budget friendly for being only about 20 min away from the French Quarter!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r148845200-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
+  </si>
+  <si>
+    <t>148845200</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Rude Staff highlights this hotel</t>
+  </si>
+  <si>
+    <t>There are PROS and CONS to this hotel. One PRO is definitely the Candlewood Suites brand, as we stayed in this hotel chain before in different locations and we were satisfied. However this hotel falls below the expectations. The staff in this hotel was simply put, rude. For the first time, I felt unwelcomed. They keep the front door locked, and we waited for about two minutes for somebody to open the door for us to check in. During the check-in, we felt as we were inconveniencing the front desk person. I cannot remember her name; just that she had a tattoo on her breasts. One other PRO is the security car which patrolled the parking at night. Nearby, you will find Win-Dixie and Waffle House. The hotel is about 14 miles/30 minutes to French Quarter. The location is not ideal. When you include gas, paring fee of $20 at French Quarter and time wasted to get there, you might just be better off staying closer to New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>cwsavondale, General Manager at Candlewood Suites Avondale-New Orleans, responded to this reviewResponded January 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2013</t>
+  </si>
+  <si>
+    <t>There are PROS and CONS to this hotel. One PRO is definitely the Candlewood Suites brand, as we stayed in this hotel chain before in different locations and we were satisfied. However this hotel falls below the expectations. The staff in this hotel was simply put, rude. For the first time, I felt unwelcomed. They keep the front door locked, and we waited for about two minutes for somebody to open the door for us to check in. During the check-in, we felt as we were inconveniencing the front desk person. I cannot remember her name; just that she had a tattoo on her breasts. One other PRO is the security car which patrolled the parking at night. Nearby, you will find Win-Dixie and Waffle House. The hotel is about 14 miles/30 minutes to French Quarter. The location is not ideal. When you include gas, paring fee of $20 at French Quarter and time wasted to get there, you might just be better off staying closer to New Orleans.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r144517143-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
@@ -1776,7 +1728,7 @@
     <t>Rude staff and Bedspread full of pet hairs</t>
   </si>
   <si>
-    <t>Wow, my boyfriend and I went on a road trip and stayed at seven different hotels under the InterContinental Hotels Group and this one was the worst!  We stayed here one night and are glad it was only one night!  When we walked into the hotel, the woman working the front desk was on the phone, and we could tell it was a personal call.  She proceeded to stay on the phone and check us in.  Once we finished checking in, we proceeded to our room.  We got off the elevator and on our the third floor where it reeked of cigarette smoke. When we got to our room, the keys would not work, surprise, surprise - woman at the front desk on the phone was not paying attention.  My boyfriend had to go back down to the front desk to get the keys programmed correctly.  Once we got into our room, we tried the internet code given to us, which was invalid!  My boyfriend called the front desk where the woman gave him an attitude, like it was his fault she messed up.  It was one number off, so I bet if she wasn't on her personal phone call, she would have got it correct the first time.  We had a room with two queen beds.  The bedspread on both the beds was filthy which we didn't realize until I noticed my boyfriend's grey shirt covered in little hairs...Wow, my boyfriend and I went on a road trip and stayed at seven different hotels under the InterContinental Hotels Group and this one was the worst!  We stayed here one night and are glad it was only one night!  When we walked into the hotel, the woman working the front desk was on the phone, and we could tell it was a personal call.  She proceeded to stay on the phone and check us in.  Once we finished checking in, we proceeded to our room.  We got off the elevator and on our the third floor where it reeked of cigarette smoke. When we got to our room, the keys would not work, surprise, surprise - woman at the front desk on the phone was not paying attention.  My boyfriend had to go back down to the front desk to get the keys programmed correctly.  Once we got into our room, we tried the internet code given to us, which was invalid!  My boyfriend called the front desk where the woman gave him an attitude, like it was his fault she messed up.  It was one number off, so I bet if she wasn't on her personal phone call, she would have got it correct the first time.  We had a room with two queen beds.  The bedspread on both the beds was filthy which we didn't realize until I noticed my boyfriend's grey shirt covered in little hairs which looked like it was from a pet!  After pulling the bedspreads off there was still some specks of little hairs on the sheets.  The shirt he was wearing was unwearable for the rest of the night because it was all over the shirt, thousands of little hairs, gross!  We went to the French Quarter, which is about a half hour drive away.  The morning of our check out I figured I would start putting a couple of our bags into the car.  I went out to our car, when I came back, the secure door that you have to wave your room key to get into the lobby wasn't opening.  The woman at the front desk should have just saw me walk out of the lobby a minute before, and I knew she could see me standing there waiting to come in (waving my useless key card over the sensor) but she didn't open the door for me!  Luckily she was talking to someone giving him directions, and when the man walked out, the door opened so I could get back in!  The man (a customer) walking out was friendlier than the staff!  I was denied entry through the main hotel door way before the check out time!  When I got back to the room, the key still worked.  So I could get into the room, but not the hotel front entrance, what a bad system!  We didn't have any issues with the main...MoreShow less</t>
+    <t>Wow, my boyfriend and I went on a road trip and stayed at seven different hotels under the InterContinental Hotels Group and this one was the worst!  We stayed here one night and are glad it was only one night!  When we walked into the hotel, the woman working the front desk was on the phone, and we could tell it was a personal call.  She proceeded to stay on the phone and check us in.  Once we finished checking in, we proceeded to our room.  We got off the elevator and on our the third floor where it reeked of cigarette smoke. When we got to our room, the keys would not work, surprise, surprise - woman at the front desk on the phone was not paying attention.  My boyfriend had to go back down to the front desk to get the keys programmed correctly.  Once we got into our room, we tried the internet code given to us, which was invalid!  My boyfriend called the front desk where the woman gave him an attitude, like it was his fault she messed up.  It was one number off, so I bet if she wasn't on her personal phone call, she would have got it correct the first time.  We had a room with two queen beds.  The bedspread on both the beds was filthy which we didn't realize until I noticed my boyfriend's grey shirt covered in little hairs...Wow, my boyfriend and I went on a road trip and stayed at seven different hotels under the InterContinental Hotels Group and this one was the worst!  We stayed here one night and are glad it was only one night!  When we walked into the hotel, the woman working the front desk was on the phone, and we could tell it was a personal call.  She proceeded to stay on the phone and check us in.  Once we finished checking in, we proceeded to our room.  We got off the elevator and on our the third floor where it reeked of cigarette smoke. When we got to our room, the keys would not work, surprise, surprise - woman at the front desk on the phone was not paying attention.  My boyfriend had to go back down to the front desk to get the keys programmed correctly.  Once we got into our room, we tried the internet code given to us, which was invalid!  My boyfriend called the front desk where the woman gave him an attitude, like it was his fault she messed up.  It was one number off, so I bet if she wasn't on her personal phone call, she would have got it correct the first time.  We had a room with two queen beds.  The bedspread on both the beds was filthy which we didn't realize until I noticed my boyfriend's grey shirt covered in little hairs which looked like it was from a pet!  After pulling the bedspreads off there was still some specks of little hairs on the sheets.  The shirt he was wearing was unwearable for the rest of the night because it was all over the shirt, thousands of little hairs, gross!  We went to the French Quarter, which is about a half hour drive away.  The morning of our check out I figured I would start putting a couple of our bags into the car.  I went out to our car, when I came back, the secure door that you have to wave your room key to get into the lobby wasn't opening.  The woman at the front desk should have just saw me walk out of the lobby a minute before, and I knew she could see me standing there waiting to come in (waving my useless key card over the sensor) but she didn't open the door for me!  Luckily she was talking to someone giving him directions, and when the man walked out, the door opened so I could get back in!  The man (a customer) walking out was friendlier than the staff!  I was denied entry through the main hotel door way before the check out time!  When I got back to the room, the key still worked.  So I could get into the room, but not the hotel front entrance, what a bad system!  We didn't have any issues with the main door opening when we came back from the French Quarter so I'm not sure what happened.  I wouldn't recommend staying here.MoreShow less</t>
   </si>
   <si>
     <t>October 2012</t>
@@ -1788,10 +1740,7 @@
     <t>Responded November 6, 2012</t>
   </si>
   <si>
-    <t>Wow, my boyfriend and I went on a road trip and stayed at seven different hotels under the InterContinental Hotels Group and this one was the worst!  We stayed here one night and are glad it was only one night!  When we walked into the hotel, the woman working the front desk was on the phone, and we could tell it was a personal call.  She proceeded to stay on the phone and check us in.  Once we finished checking in, we proceeded to our room.  We got off the elevator and on our the third floor where it reeked of cigarette smoke. When we got to our room, the keys would not work, surprise, surprise - woman at the front desk on the phone was not paying attention.  My boyfriend had to go back down to the front desk to get the keys programmed correctly.  Once we got into our room, we tried the internet code given to us, which was invalid!  My boyfriend called the front desk where the woman gave him an attitude, like it was his fault she messed up.  It was one number off, so I bet if she wasn't on her personal phone call, she would have got it correct the first time.  We had a room with two queen beds.  The bedspread on both the beds was filthy which we didn't realize until I noticed my boyfriend's grey shirt covered in little hairs...Wow, my boyfriend and I went on a road trip and stayed at seven different hotels under the InterContinental Hotels Group and this one was the worst!  We stayed here one night and are glad it was only one night!  When we walked into the hotel, the woman working the front desk was on the phone, and we could tell it was a personal call.  She proceeded to stay on the phone and check us in.  Once we finished checking in, we proceeded to our room.  We got off the elevator and on our the third floor where it reeked of cigarette smoke. When we got to our room, the keys would not work, surprise, surprise - woman at the front desk on the phone was not paying attention.  My boyfriend had to go back down to the front desk to get the keys programmed correctly.  Once we got into our room, we tried the internet code given to us, which was invalid!  My boyfriend called the front desk where the woman gave him an attitude, like it was his fault she messed up.  It was one number off, so I bet if she wasn't on her personal phone call, she would have got it correct the first time.  We had a room with two queen beds.  The bedspread on both the beds was filthy which we didn't realize until I noticed my boyfriend's grey shirt covered in little hairs which looked like it was from a pet!  After pulling the bedspreads off there was still some specks of little hairs on the sheets.  The shirt he was wearing was unwearable for the rest of the night because it was all over the shirt, thousands of little hairs, gross!  We went to the French Quarter, which is about a half hour drive away.  The morning of our check out I figured I would start putting a couple of our bags into the car.  I went out to our car, when I came back, the secure door that you have to wave your room key to get into the lobby wasn't opening.  The woman at the front desk should have just saw me walk out of the lobby a minute before, and I knew she could see me standing there waiting to come in (waving my useless key card over the sensor) but she didn't open the door for me!  Luckily she was talking to someone giving him directions, and when the man walked out, the door opened so I could get back in!  The man (a customer) walking out was friendlier than the staff!  I was denied entry through the main hotel door way before the check out time!  When I got back to the room, the key still worked.  So I could get into the room, but not the hotel front entrance, what a bad system!  We didn't have any issues with the main...More</t>
-  </si>
-  <si>
-    <t>Sherri T</t>
+    <t>Wow, my boyfriend and I went on a road trip and stayed at seven different hotels under the InterContinental Hotels Group and this one was the worst!  We stayed here one night and are glad it was only one night!  When we walked into the hotel, the woman working the front desk was on the phone, and we could tell it was a personal call.  She proceeded to stay on the phone and check us in.  Once we finished checking in, we proceeded to our room.  We got off the elevator and on our the third floor where it reeked of cigarette smoke. When we got to our room, the keys would not work, surprise, surprise - woman at the front desk on the phone was not paying attention.  My boyfriend had to go back down to the front desk to get the keys programmed correctly.  Once we got into our room, we tried the internet code given to us, which was invalid!  My boyfriend called the front desk where the woman gave him an attitude, like it was his fault she messed up.  It was one number off, so I bet if she wasn't on her personal phone call, she would have got it correct the first time.  We had a room with two queen beds.  The bedspread on both the beds was filthy which we didn't realize until I noticed my boyfriend's grey shirt covered in little hairs...Wow, my boyfriend and I went on a road trip and stayed at seven different hotels under the InterContinental Hotels Group and this one was the worst!  We stayed here one night and are glad it was only one night!  When we walked into the hotel, the woman working the front desk was on the phone, and we could tell it was a personal call.  She proceeded to stay on the phone and check us in.  Once we finished checking in, we proceeded to our room.  We got off the elevator and on our the third floor where it reeked of cigarette smoke. When we got to our room, the keys would not work, surprise, surprise - woman at the front desk on the phone was not paying attention.  My boyfriend had to go back down to the front desk to get the keys programmed correctly.  Once we got into our room, we tried the internet code given to us, which was invalid!  My boyfriend called the front desk where the woman gave him an attitude, like it was his fault she messed up.  It was one number off, so I bet if she wasn't on her personal phone call, she would have got it correct the first time.  We had a room with two queen beds.  The bedspread on both the beds was filthy which we didn't realize until I noticed my boyfriend's grey shirt covered in little hairs which looked like it was from a pet!  After pulling the bedspreads off there was still some specks of little hairs on the sheets.  The shirt he was wearing was unwearable for the rest of the night because it was all over the shirt, thousands of little hairs, gross!  We went to the French Quarter, which is about a half hour drive away.  The morning of our check out I figured I would start putting a couple of our bags into the car.  I went out to our car, when I came back, the secure door that you have to wave your room key to get into the lobby wasn't opening.  The woman at the front desk should have just saw me walk out of the lobby a minute before, and I knew she could see me standing there waiting to come in (waving my useless key card over the sensor) but she didn't open the door for me!  Luckily she was talking to someone giving him directions, and when the man walked out, the door opened so I could get back in!  The man (a customer) walking out was friendlier than the staff!  I was denied entry through the main hotel door way before the check out time!  When I got back to the room, the key still worked.  So I could get into the room, but not the hotel front entrance, what a bad system!  We didn't have any issues with the main door opening when we came back from the French Quarter so I'm not sure what happened.  I wouldn't recommend staying here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r133048295-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
@@ -1821,9 +1770,6 @@
     <t>If you are not a local resident in New Orleans or live any parts of La I don't recommend staying here for it's location. The hotel was beautiful has everything but a swimming pool. It's great being non smoking hotel and it was very secured with their security system.More</t>
   </si>
   <si>
-    <t>missjazzsinger</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r132571670-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1848,9 +1794,6 @@
     <t>I travelled to this hotel for work but brought my two children with me. Although they were not immersed in the culture of New Orleans (being that Avondale is a suburb of New Orleans) it was perfect. It was quiet. The facilities were very clean. The staff was so-so - not as attentive as I'm used to. There is not much within walking distance (Popeyes, Wendy's, Wafflehouse). There is a grocery store if you want real food (all rooms have a small kitchen with kitchen ware). There is also a little convenient type store in the lobby but it is overpriced. Internet connection stunk. And the computers they had available were even worse. Bring your own aircard and use your own internet. If you are looking for a place to stay to visit New Orleans but not be in the hub of New Orleans, this is a good place.More</t>
   </si>
   <si>
-    <t>Sonja M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r130880298-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1872,9 +1815,6 @@
     <t>12 miles from NO, French Quarter. Large, clean, well stocked rooms. Only stayed one night, but is ideal for long term stay. Easy access to the city after a long drive. Would book directly through hotel instead of hotels.com, was charged twice on my card. Hotel was willing to credit their charge, problem was it was LESS than what H.com charged. Felt ripped off by H.com, not the hotel. Would stay here again. Sheets and towels were a little scratchy, but not unbearable, and bring your own pillows. Overall...pleased with this place, would stay here again if the need arose to stay in this area.More</t>
   </si>
   <si>
-    <t>ColetteAndJim</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r130003100-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1896,9 +1836,6 @@
     <t>We stayed here in 2012 March for a family event.  We were a bit nervous driving into the area as it seems fairly sketchy at first, but the hotel was great.  Nice clean rooms, friendly staff, and quiet overall.  We picked up grillables at the grocery store right next door and had a great cookout on the gas grill in their patio area.  We would definitely stay here again.More</t>
   </si>
   <si>
-    <t>Eric34328</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r129786260-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1915,9 +1852,6 @@
   </si>
   <si>
     <t>I stayed here for a couple weeks an enjoyed every minute.  The rooms are spacious and clean and it was really nice having all the comforts of home.  Full kitchen and bath with big screen LCD.  I would recommend this place for a few days or long term.  Staff is really friendly and willing to help with anything you may need during your stay.More</t>
-  </si>
-  <si>
-    <t>foxegurl266</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r126290144-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
@@ -1948,9 +1882,6 @@
 I also like that...This hotel is very new and features very bright and airy hallways that lead to a generously sized room. Your room includes a full size refrigerator (including a full size freezer and ice maker), sink with disposal, dishwasher, and two stove-top burners. There were two dishwasher detergent pods, Palmolive dish soap, and a pack of popcorn waiting on the counter when I arrived. There are pots and pans, a strainer, toaster, coffee maker with two Maxwell House packets with creamer and sugar, serving utensils, hand towel, paper towels, pot holder, large liquid pitcher, can opener, dishes, cups, coffee mugs, plates, cereal bowls, silverware; most of which had at two of each item. There is free laundry and a gym. There was also a grill and outdoor patio. There is a Blue-Ray player in your room and there is a wide array of blue-ray movies available downstairs at the front desk for free use. The bed is comfy with several pillows. You can adjust the temperature of your room by using the digital thermostat on the wall. It even detects when you enter and exit the room to save energy. The bathroom is spacious with lots of space in the cabinet beneath the sink. The towels are a little more plush than the towels you normally find at a hotel. The bathroom is also equipped with Pantene Pro-V 2-in-1 shampoo and conditioner, bar soap, and a hairdryer. I also like that the front door is locked at all times so you have to have a room key to enter the building, even through the lobby. Don't worry, the front desk attendant will open the doors for you if you have your hands full. Just a few tips: Bring or purchase a wine opener if you plan on drinking some as there was not one in the room. Also, the hotel is separated from New Orleans by the H.P. Long bridge which is currently undergoing construction. This makes for a LOT of traffic if you're trying to go downtown. I'd recommend staying elsewhere if you plan on traveling into New Orleans everyday. The traffic will make your commute last a lot longer.More</t>
   </si>
   <si>
-    <t>super83120</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r116364813-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1975,9 +1906,6 @@
     <t>We stayed at this hotel prior to our cruise. The rooms clean and very clean.  I would definately stay here again.More</t>
   </si>
   <si>
-    <t>LAWoman001</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r115658100-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
   </si>
   <si>
@@ -1997,9 +1925,6 @@
   </si>
   <si>
     <t>My husband and I on a 2 week trip to visit family combined with business.  So far..this is the absolute best hotel we have had.  This hotel is brand new and still smells new. We have a King Suite with one bed. The room has everything you need: microwave, refrigerator, dishwasher. Very clean and comfortable. The only down side is the management. We found them not very friendly in the "southern hospitality" way we expected.  While the room is very comfortable, we do not feel comfortable or at ease.  We are traveling with our 14 year old Lhasa Apso and while out dining with our relatives, we received a call from the hotel letting us know our dog had been barking all morning. Our dog is not so much a barker but is more of a "cryer".  She will cry when lonely so we thought this was an overstatement.  We had to leave our lunch and return to the hotel.  Their "pet policy" is a bit stringent. It is impossible to expect any pet to remain completely silent when in a strange place.  We will not return to this hotel with out pet again.More</t>
-  </si>
-  <si>
-    <t>kenonoshow</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g2056957-d2151532-r114921418-Candlewood_Suites_Avondale_New_Orleans-Avondale_Louisiana.html</t>
@@ -2516,47 +2441,43 @@
       <c r="A2" t="n">
         <v>61253</v>
       </c>
-      <c r="B2" t="n">
-        <v>14695</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>47</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>49</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2568,60 +2489,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>52</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>61253</v>
       </c>
-      <c r="B3" t="n">
-        <v>14696</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2639,60 +2556,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
         <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>61253</v>
       </c>
-      <c r="B4" t="n">
-        <v>14697</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2704,60 +2617,56 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>61253</v>
       </c>
-      <c r="B5" t="n">
-        <v>14698</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2769,60 +2678,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>61253</v>
       </c>
-      <c r="B6" t="n">
-        <v>14699</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>90</v>
-      </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2840,60 +2745,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>61253</v>
       </c>
-      <c r="B7" t="n">
-        <v>14700</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2905,60 +2806,56 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>61253</v>
       </c>
-      <c r="B8" t="n">
-        <v>14701</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2970,60 +2867,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>61253</v>
       </c>
-      <c r="B9" t="n">
-        <v>14702</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3035,60 +2928,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>61253</v>
       </c>
-      <c r="B10" t="n">
-        <v>14703</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3106,54 +2995,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>61253</v>
       </c>
-      <c r="B11" t="n">
-        <v>14704</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3173,54 +3058,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>61253</v>
       </c>
-      <c r="B12" t="n">
-        <v>14705</v>
-      </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3232,60 +3113,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="Y12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>61253</v>
       </c>
-      <c r="B13" t="n">
-        <v>14706</v>
-      </c>
-      <c r="C13" t="s">
-        <v>149</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3297,60 +3174,56 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>61253</v>
       </c>
-      <c r="B14" t="n">
-        <v>14707</v>
-      </c>
-      <c r="C14" t="s">
-        <v>159</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3368,60 +3241,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>61253</v>
       </c>
-      <c r="B15" t="n">
-        <v>14708</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3433,60 +3302,56 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="X15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>61253</v>
       </c>
-      <c r="B16" t="n">
-        <v>14709</v>
-      </c>
-      <c r="C16" t="s">
-        <v>178</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3504,60 +3369,56 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>61253</v>
       </c>
-      <c r="B17" t="n">
-        <v>6395</v>
-      </c>
-      <c r="C17" t="s">
-        <v>188</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3573,60 +3434,56 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>61253</v>
       </c>
-      <c r="B18" t="n">
-        <v>4657</v>
-      </c>
-      <c r="C18" t="s">
-        <v>198</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3644,60 +3501,56 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>61253</v>
       </c>
-      <c r="B19" t="n">
-        <v>11860</v>
-      </c>
-      <c r="C19" t="s">
-        <v>208</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3709,60 +3562,56 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>61253</v>
       </c>
-      <c r="B20" t="n">
-        <v>14710</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3778,60 +3627,56 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>61253</v>
       </c>
-      <c r="B21" t="n">
-        <v>14711</v>
-      </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3849,60 +3694,56 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="X21" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>61253</v>
       </c>
-      <c r="B22" t="n">
-        <v>14712</v>
-      </c>
-      <c r="C22" t="s">
-        <v>236</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="J22" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3914,60 +3755,56 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="X22" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>61253</v>
       </c>
-      <c r="B23" t="n">
-        <v>14713</v>
-      </c>
-      <c r="C23" t="s">
-        <v>245</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3979,60 +3816,56 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="X23" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>61253</v>
       </c>
-      <c r="B24" t="n">
-        <v>14714</v>
-      </c>
-      <c r="C24" t="s">
-        <v>255</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4050,60 +3883,56 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="X24" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="Y24" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>61253</v>
       </c>
-      <c r="B25" t="n">
-        <v>14715</v>
-      </c>
-      <c r="C25" t="s">
-        <v>264</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4121,60 +3950,56 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="X25" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="Y25" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>61253</v>
       </c>
-      <c r="B26" t="n">
-        <v>6701</v>
-      </c>
-      <c r="C26" t="s">
-        <v>273</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4192,60 +4017,56 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="X26" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="Y26" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>61253</v>
       </c>
-      <c r="B27" t="n">
-        <v>14716</v>
-      </c>
-      <c r="C27" t="s">
-        <v>281</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4263,60 +4084,56 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="X27" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y27" t="s">
         <v>262</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>61253</v>
       </c>
-      <c r="B28" t="n">
-        <v>4599</v>
-      </c>
-      <c r="C28" t="s">
-        <v>289</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4328,60 +4145,56 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="X28" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="Y28" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>61253</v>
       </c>
-      <c r="B29" t="n">
-        <v>14717</v>
-      </c>
-      <c r="C29" t="s">
-        <v>296</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4399,60 +4212,56 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="X29" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="Y29" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>61253</v>
       </c>
-      <c r="B30" t="n">
-        <v>14718</v>
-      </c>
-      <c r="C30" t="s">
-        <v>306</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4464,60 +4273,56 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>61253</v>
       </c>
-      <c r="B31" t="n">
-        <v>7145</v>
-      </c>
-      <c r="C31" t="s">
-        <v>315</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="J31" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4529,51 +4334,47 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="X31" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Y31" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>61253</v>
       </c>
-      <c r="B32" t="n">
-        <v>14719</v>
-      </c>
-      <c r="C32" t="s">
-        <v>324</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
@@ -4590,60 +4391,56 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="X32" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="Y32" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>61253</v>
       </c>
-      <c r="B33" t="n">
-        <v>14720</v>
-      </c>
-      <c r="C33" t="s">
-        <v>333</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="J33" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4655,60 +4452,56 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="X33" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="Y33" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>61253</v>
       </c>
-      <c r="B34" t="n">
-        <v>14721</v>
-      </c>
-      <c r="C34" t="s">
-        <v>343</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="O34" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4722,54 +4515,50 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>61253</v>
       </c>
-      <c r="B35" t="n">
-        <v>14722</v>
-      </c>
-      <c r="C35" t="s">
-        <v>349</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="J35" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4789,54 +4578,50 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>61253</v>
       </c>
-      <c r="B36" t="n">
-        <v>14723</v>
-      </c>
-      <c r="C36" t="s">
-        <v>355</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="J36" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="L36" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4852,60 +4637,56 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="X36" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>61253</v>
       </c>
-      <c r="B37" t="n">
-        <v>1827</v>
-      </c>
-      <c r="C37" t="s">
-        <v>365</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="J37" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4917,60 +4698,56 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="X37" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>61253</v>
       </c>
-      <c r="B38" t="n">
-        <v>5050</v>
-      </c>
-      <c r="C38" t="s">
-        <v>372</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="J38" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="O38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4988,60 +4765,56 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="X38" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="Y38" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>61253</v>
       </c>
-      <c r="B39" t="n">
-        <v>14724</v>
-      </c>
-      <c r="C39" t="s">
-        <v>381</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="J39" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="K39" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="O39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5053,60 +4826,56 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="X39" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
       <c r="Y39" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>61253</v>
       </c>
-      <c r="B40" t="n">
-        <v>3952</v>
-      </c>
-      <c r="C40" t="s">
-        <v>388</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="J40" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="K40" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="O40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5118,60 +4887,56 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="X40" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="Y40" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>61253</v>
       </c>
-      <c r="B41" t="n">
-        <v>9535</v>
-      </c>
-      <c r="C41" t="s">
-        <v>397</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="J41" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5185,54 +4950,50 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>61253</v>
       </c>
-      <c r="B42" t="n">
-        <v>14725</v>
-      </c>
-      <c r="C42" t="s">
-        <v>403</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="J42" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="K42" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5244,60 +5005,56 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="X42" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="Y42" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>61253</v>
       </c>
-      <c r="B43" t="n">
-        <v>14726</v>
-      </c>
-      <c r="C43" t="s">
-        <v>412</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="O43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5315,60 +5072,56 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="X43" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="Y43" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>61253</v>
       </c>
-      <c r="B44" t="n">
-        <v>14727</v>
-      </c>
-      <c r="C44" t="s">
-        <v>422</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>424</v>
+        <v>381</v>
       </c>
       <c r="J44" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="O44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5386,51 +5139,47 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="X44" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="Y44" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>61253</v>
       </c>
-      <c r="B45" t="n">
-        <v>14728</v>
-      </c>
-      <c r="C45" t="s">
-        <v>431</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="J45" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="K45" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
@@ -5449,54 +5198,50 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>61253</v>
       </c>
-      <c r="B46" t="n">
-        <v>14729</v>
-      </c>
-      <c r="C46" t="s">
-        <v>437</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="J46" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="K46" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="L46" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="O46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5510,54 +5255,50 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>61253</v>
       </c>
-      <c r="B47" t="n">
-        <v>14730</v>
-      </c>
-      <c r="C47" t="s">
-        <v>444</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="J47" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="K47" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="O47" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5569,60 +5310,56 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="X47" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="Y47" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>61253</v>
       </c>
-      <c r="B48" t="n">
-        <v>14731</v>
-      </c>
-      <c r="C48" t="s">
-        <v>453</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="J48" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="K48" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="L48" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="O48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5638,60 +5375,56 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="X48" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="Y48" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>61253</v>
       </c>
-      <c r="B49" t="n">
-        <v>14732</v>
-      </c>
-      <c r="C49" t="s">
-        <v>463</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>465</v>
+        <v>417</v>
       </c>
       <c r="J49" t="s">
-        <v>466</v>
+        <v>418</v>
       </c>
       <c r="K49" t="s">
-        <v>467</v>
+        <v>419</v>
       </c>
       <c r="L49" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
       <c r="O49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5709,60 +5442,56 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="X49" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="Y49" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>61253</v>
       </c>
-      <c r="B50" t="n">
-        <v>2095</v>
-      </c>
-      <c r="C50" t="s">
-        <v>473</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I50" t="s">
-        <v>475</v>
+        <v>426</v>
       </c>
       <c r="J50" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
       <c r="K50" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5776,60 +5505,56 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="X50" t="s">
-        <v>481</v>
+        <v>432</v>
       </c>
       <c r="Y50" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>61253</v>
       </c>
-      <c r="B51" t="n">
-        <v>6529</v>
-      </c>
-      <c r="C51" t="s">
-        <v>483</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="J51" t="s">
-        <v>486</v>
+        <v>436</v>
       </c>
       <c r="K51" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="L51" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="O51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5845,60 +5570,56 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="X51" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="Y51" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>61253</v>
       </c>
-      <c r="B52" t="n">
-        <v>14733</v>
-      </c>
-      <c r="C52" t="s">
-        <v>493</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="J52" t="s">
-        <v>496</v>
+        <v>445</v>
       </c>
       <c r="K52" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="L52" t="s">
-        <v>497</v>
+        <v>446</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="O52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5914,60 +5635,56 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="X52" t="s">
-        <v>499</v>
+        <v>448</v>
       </c>
       <c r="Y52" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>61253</v>
       </c>
-      <c r="B53" t="n">
-        <v>14734</v>
-      </c>
-      <c r="C53" t="s">
-        <v>501</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="J53" t="s">
-        <v>504</v>
+        <v>452</v>
       </c>
       <c r="K53" t="s">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="O53" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5985,60 +5702,56 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="X53" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
       <c r="Y53" t="s">
-        <v>510</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>61253</v>
       </c>
-      <c r="B54" t="n">
-        <v>14735</v>
-      </c>
-      <c r="C54" t="s">
-        <v>511</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="J54" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="K54" t="s">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="L54" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6054,60 +5767,56 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="X54" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="Y54" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>61253</v>
       </c>
-      <c r="B55" t="n">
-        <v>14736</v>
-      </c>
-      <c r="C55" t="s">
-        <v>520</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I55" t="s">
-        <v>522</v>
+        <v>468</v>
       </c>
       <c r="J55" t="s">
-        <v>523</v>
+        <v>469</v>
       </c>
       <c r="K55" t="s">
-        <v>524</v>
+        <v>470</v>
       </c>
       <c r="L55" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6123,60 +5832,56 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>527</v>
+        <v>473</v>
       </c>
       <c r="X55" t="s">
-        <v>528</v>
+        <v>474</v>
       </c>
       <c r="Y55" t="s">
-        <v>529</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>61253</v>
       </c>
-      <c r="B56" t="n">
-        <v>14737</v>
-      </c>
-      <c r="C56" t="s">
-        <v>530</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>531</v>
+        <v>476</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>532</v>
+        <v>477</v>
       </c>
       <c r="J56" t="s">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="K56" t="s">
-        <v>534</v>
+        <v>479</v>
       </c>
       <c r="L56" t="s">
-        <v>535</v>
+        <v>480</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>536</v>
+        <v>481</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6194,60 +5899,56 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>537</v>
+        <v>482</v>
       </c>
       <c r="X56" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
       <c r="Y56" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>61253</v>
       </c>
-      <c r="B57" t="n">
-        <v>14738</v>
-      </c>
-      <c r="C57" t="s">
-        <v>540</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I57" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="J57" t="s">
-        <v>543</v>
+        <v>487</v>
       </c>
       <c r="K57" t="s">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="L57" t="s">
-        <v>545</v>
+        <v>489</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
       <c r="O57" t="s">
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6259,60 +5960,56 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="X57" t="s">
-        <v>548</v>
+        <v>492</v>
       </c>
       <c r="Y57" t="s">
-        <v>549</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>61253</v>
       </c>
-      <c r="B58" t="n">
-        <v>14739</v>
-      </c>
-      <c r="C58" t="s">
-        <v>550</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>551</v>
+        <v>494</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>552</v>
+        <v>495</v>
       </c>
       <c r="J58" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
       <c r="K58" t="s">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="L58" t="s">
-        <v>555</v>
+        <v>498</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>556</v>
+        <v>499</v>
       </c>
       <c r="O58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6336,54 +6033,50 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>61253</v>
       </c>
-      <c r="B59" t="n">
-        <v>14740</v>
-      </c>
-      <c r="C59" t="s">
-        <v>558</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>559</v>
+        <v>501</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I59" t="s">
-        <v>560</v>
+        <v>502</v>
       </c>
       <c r="J59" t="s">
-        <v>561</v>
+        <v>503</v>
       </c>
       <c r="K59" t="s">
-        <v>562</v>
+        <v>504</v>
       </c>
       <c r="L59" t="s">
-        <v>563</v>
+        <v>505</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>556</v>
+        <v>499</v>
       </c>
       <c r="O59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6405,60 +6098,56 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>564</v>
+        <v>506</v>
       </c>
       <c r="X59" t="s">
-        <v>565</v>
+        <v>507</v>
       </c>
       <c r="Y59" t="s">
-        <v>566</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>61253</v>
       </c>
-      <c r="B60" t="n">
-        <v>14741</v>
-      </c>
-      <c r="C60" t="s">
-        <v>567</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>568</v>
+        <v>509</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I60" t="s">
-        <v>569</v>
+        <v>510</v>
       </c>
       <c r="J60" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="K60" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="L60" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>573</v>
+        <v>514</v>
       </c>
       <c r="O60" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6482,54 +6171,50 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>61253</v>
       </c>
-      <c r="B61" t="n">
-        <v>14742</v>
-      </c>
-      <c r="C61" t="s">
-        <v>574</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I61" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="J61" t="s">
-        <v>577</v>
+        <v>517</v>
       </c>
       <c r="K61" t="s">
-        <v>578</v>
+        <v>518</v>
       </c>
       <c r="L61" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6553,279 +6238,253 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>61253</v>
       </c>
-      <c r="B62" t="n">
-        <v>14743</v>
-      </c>
-      <c r="C62" t="s">
-        <v>581</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>582</v>
+        <v>521</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I62" t="s">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="J62" t="s">
-        <v>584</v>
+        <v>523</v>
       </c>
       <c r="K62" t="s">
-        <v>585</v>
+        <v>524</v>
       </c>
       <c r="L62" t="s">
-        <v>586</v>
+        <v>525</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="O62" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>588</v>
+        <v>527</v>
       </c>
       <c r="X62" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="Y62" t="s">
-        <v>590</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>61253</v>
       </c>
-      <c r="B63" t="n">
-        <v>14744</v>
-      </c>
-      <c r="C63" t="s">
-        <v>591</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>592</v>
+        <v>530</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I63" t="s">
-        <v>593</v>
+        <v>531</v>
       </c>
       <c r="J63" t="s">
-        <v>594</v>
+        <v>532</v>
       </c>
       <c r="K63" t="s">
-        <v>595</v>
+        <v>533</v>
       </c>
       <c r="L63" t="s">
-        <v>596</v>
+        <v>534</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>597</v>
+        <v>535</v>
       </c>
       <c r="O63" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q63" t="n">
         <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>598</v>
+        <v>536</v>
       </c>
       <c r="X63" t="s">
-        <v>599</v>
+        <v>537</v>
       </c>
       <c r="Y63" t="s">
-        <v>600</v>
+        <v>538</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>61253</v>
       </c>
-      <c r="B64" t="n">
-        <v>14745</v>
-      </c>
-      <c r="C64" t="s">
-        <v>601</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F64" t="s">
-        <v>602</v>
+        <v>539</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I64" t="s">
-        <v>603</v>
+        <v>540</v>
       </c>
       <c r="J64" t="s">
-        <v>604</v>
+        <v>541</v>
       </c>
       <c r="K64" t="s">
-        <v>605</v>
+        <v>542</v>
       </c>
       <c r="L64" t="s">
-        <v>606</v>
+        <v>543</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>597</v>
+        <v>544</v>
       </c>
       <c r="O64" t="s">
-        <v>71</v>
-      </c>
-      <c r="P64" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>4</v>
-      </c>
-      <c r="R64" t="n">
-        <v>3</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>1</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>607</v>
+        <v>545</v>
       </c>
       <c r="X64" t="s">
-        <v>608</v>
+        <v>546</v>
       </c>
       <c r="Y64" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>61253</v>
       </c>
-      <c r="B65" t="n">
-        <v>14746</v>
-      </c>
-      <c r="C65" t="s">
-        <v>610</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s">
-        <v>611</v>
+        <v>548</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I65" t="s">
-        <v>612</v>
+        <v>549</v>
       </c>
       <c r="J65" t="s">
-        <v>613</v>
+        <v>550</v>
       </c>
       <c r="K65" t="s">
-        <v>614</v>
+        <v>551</v>
       </c>
       <c r="L65" t="s">
-        <v>615</v>
+        <v>552</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>616</v>
+        <v>553</v>
       </c>
       <c r="O65" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6834,7 +6493,7 @@
         <v>5</v>
       </c>
       <c r="R65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -6847,210 +6506,198 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="X65" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="Y65" t="s">
-        <v>617</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>61253</v>
       </c>
-      <c r="B66" t="n">
-        <v>14747</v>
-      </c>
-      <c r="C66" t="s">
-        <v>618</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>619</v>
+        <v>557</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I66" t="s">
-        <v>620</v>
+        <v>558</v>
       </c>
       <c r="J66" t="s">
-        <v>621</v>
+        <v>559</v>
       </c>
       <c r="K66" t="s">
-        <v>622</v>
+        <v>560</v>
       </c>
       <c r="L66" t="s">
-        <v>623</v>
+        <v>561</v>
       </c>
       <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>562</v>
+      </c>
+      <c r="O66" t="s">
+        <v>113</v>
+      </c>
+      <c r="P66" t="n">
         <v>4</v>
       </c>
-      <c r="N66" t="s">
-        <v>624</v>
-      </c>
-      <c r="O66" t="s">
-        <v>50</v>
-      </c>
-      <c r="P66" t="n">
-        <v>5</v>
-      </c>
       <c r="Q66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="X66" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="Y66" t="s">
-        <v>625</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>61253</v>
       </c>
-      <c r="B67" t="n">
-        <v>14748</v>
-      </c>
-      <c r="C67" t="s">
-        <v>626</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I67" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="J67" t="s">
-        <v>629</v>
+        <v>568</v>
       </c>
       <c r="K67" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
       <c r="L67" t="s">
-        <v>631</v>
+        <v>570</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
       <c r="O67" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="P67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
       <c r="X67" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="Y67" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>61253</v>
       </c>
-      <c r="B68" t="n">
-        <v>14749</v>
-      </c>
-      <c r="C68" t="s">
-        <v>633</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>634</v>
+        <v>575</v>
       </c>
       <c r="G68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I68" t="s">
-        <v>635</v>
+        <v>576</v>
       </c>
       <c r="J68" t="s">
-        <v>636</v>
+        <v>577</v>
       </c>
       <c r="K68" t="s">
-        <v>637</v>
+        <v>578</v>
       </c>
       <c r="L68" t="s">
-        <v>638</v>
+        <v>579</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>624</v>
+        <v>580</v>
       </c>
       <c r="O68" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7059,233 +6706,576 @@
         <v>5</v>
       </c>
       <c r="R68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S68" t="n">
         <v>5</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>639</v>
+        <v>581</v>
       </c>
       <c r="X68" t="s">
-        <v>640</v>
+        <v>582</v>
       </c>
       <c r="Y68" t="s">
-        <v>641</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>61253</v>
       </c>
-      <c r="B69" t="n">
-        <v>14750</v>
-      </c>
-      <c r="C69" t="s">
-        <v>642</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>643</v>
+        <v>584</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I69" t="s">
-        <v>644</v>
+        <v>585</v>
       </c>
       <c r="J69" t="s">
-        <v>645</v>
+        <v>586</v>
       </c>
       <c r="K69" t="s">
-        <v>646</v>
+        <v>587</v>
       </c>
       <c r="L69" t="s">
-        <v>647</v>
+        <v>588</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
-      </c>
-      <c r="N69" t="s"/>
-      <c r="O69" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>580</v>
+      </c>
+      <c r="O69" t="s">
+        <v>68</v>
+      </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S69" t="n">
         <v>5</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>648</v>
+        <v>589</v>
       </c>
       <c r="X69" t="s">
-        <v>649</v>
+        <v>590</v>
       </c>
       <c r="Y69" t="s">
-        <v>650</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>61253</v>
       </c>
-      <c r="B70" t="n">
-        <v>14751</v>
-      </c>
-      <c r="C70" t="s">
-        <v>651</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>652</v>
+        <v>592</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I70" t="s">
-        <v>653</v>
+        <v>593</v>
       </c>
       <c r="J70" t="s">
-        <v>654</v>
+        <v>594</v>
       </c>
       <c r="K70" t="s">
-        <v>655</v>
+        <v>595</v>
       </c>
       <c r="L70" t="s">
-        <v>656</v>
+        <v>596</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>657</v>
+        <v>597</v>
       </c>
       <c r="O70" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="P70" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q70" t="s"/>
-      <c r="R70" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
       <c r="S70" t="n">
         <v>5</v>
       </c>
       <c r="T70" t="s"/>
-      <c r="U70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="X70" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="Y70" t="s">
-        <v>658</v>
+        <v>598</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>61253</v>
       </c>
-      <c r="B71" t="n">
-        <v>14752</v>
-      </c>
-      <c r="C71" t="s">
-        <v>659</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>660</v>
+        <v>599</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I71" t="s">
-        <v>661</v>
+        <v>600</v>
       </c>
       <c r="J71" t="s">
-        <v>662</v>
+        <v>601</v>
       </c>
       <c r="K71" t="s">
-        <v>663</v>
+        <v>602</v>
       </c>
       <c r="L71" t="s">
-        <v>664</v>
+        <v>603</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>657</v>
+        <v>604</v>
       </c>
       <c r="O71" t="s">
-        <v>50</v>
-      </c>
-      <c r="P71" t="s"/>
-      <c r="Q71" t="s"/>
-      <c r="R71" t="s"/>
-      <c r="S71" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>581</v>
+      </c>
+      <c r="X71" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>61253</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s">
+        <v>606</v>
+      </c>
+      <c r="G72" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" t="s">
+        <v>43</v>
+      </c>
+      <c r="I72" t="s">
+        <v>607</v>
+      </c>
+      <c r="J72" t="s">
+        <v>608</v>
+      </c>
+      <c r="K72" t="s">
+        <v>609</v>
+      </c>
+      <c r="L72" t="s">
+        <v>610</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>597</v>
+      </c>
+      <c r="O72" t="s">
+        <v>68</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>589</v>
+      </c>
+      <c r="X72" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>61253</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s">
+        <v>612</v>
+      </c>
+      <c r="G73" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I73" t="s">
+        <v>613</v>
+      </c>
+      <c r="J73" t="s">
+        <v>614</v>
+      </c>
+      <c r="K73" t="s">
+        <v>615</v>
+      </c>
+      <c r="L73" t="s">
+        <v>616</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>604</v>
+      </c>
+      <c r="O73" t="s">
+        <v>68</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>617</v>
+      </c>
+      <c r="X73" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>61253</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s">
+        <v>620</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s">
+        <v>621</v>
+      </c>
+      <c r="J74" t="s">
+        <v>622</v>
+      </c>
+      <c r="K74" t="s">
+        <v>623</v>
+      </c>
+      <c r="L74" t="s">
+        <v>624</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>625</v>
+      </c>
+      <c r="X74" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>61253</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s">
+        <v>628</v>
+      </c>
+      <c r="G75" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" t="s">
+        <v>43</v>
+      </c>
+      <c r="I75" t="s">
+        <v>629</v>
+      </c>
+      <c r="J75" t="s">
+        <v>630</v>
+      </c>
+      <c r="K75" t="s">
+        <v>631</v>
+      </c>
+      <c r="L75" t="s">
+        <v>632</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>633</v>
+      </c>
+      <c r="O75" t="s">
+        <v>49</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>589</v>
+      </c>
+      <c r="X75" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>61253</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" t="s">
+        <v>635</v>
+      </c>
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" t="s">
+        <v>43</v>
+      </c>
+      <c r="I76" t="s">
+        <v>636</v>
+      </c>
+      <c r="J76" t="s">
+        <v>637</v>
+      </c>
+      <c r="K76" t="s">
+        <v>638</v>
+      </c>
+      <c r="L76" t="s">
+        <v>639</v>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="s">
-        <v>648</v>
-      </c>
-      <c r="X71" t="s">
-        <v>649</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>665</v>
+      <c r="N76" t="s">
+        <v>633</v>
+      </c>
+      <c r="O76" t="s">
+        <v>49</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>625</v>
+      </c>
+      <c r="X76" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
